--- a/text_test2.xlsx
+++ b/text_test2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/natdanaithedwichienchai/Documents/Test NLP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/natdanaithedwichienchai/Documents/GitHub/Test-NLP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C287793A-D335-0641-BAE2-5FBA08EA88AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC4834C-4A84-E249-BEBA-0948F8141821}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,25 +49,13 @@
     <t>Porntep Seedang</t>
   </si>
   <si>
-    <t>ขอทราบเป็นไอดีไลน์สะดวกไหมคะ เจ้าหน้าที่โทรไลน์ไปหาค่ะ </t>
-  </si>
-  <si>
     <t>Bumbim Poonphisa</t>
-  </si>
-  <si>
-    <t>รบกวนขอทราบชื่อเพจเฟสบุ๊ก ชื่อคุณลูกค้าและเบอร์ติดต่อกลับ ทางเจ้าหน้าทีจะติดต่อเข้าไป เพื่อแนะนำแพ็คเกจที่เหมาะสมกับธุรกิจ ได้ตรงตามความต้องการค่ะ </t>
   </si>
   <si>
     <t>Donuttw Pinsuwan</t>
   </si>
   <si>
-    <t>ค่ะ ประสานงานฝ่ายที่เกี่ยวข้องให้นะคะ </t>
-  </si>
-  <si>
     <t>ฅนหัวโบราณ ฅนหัวโบราณ</t>
-  </si>
-  <si>
-    <t>เรามีแพคเกจอยู่หลายแบบทั้งแบบ Business และ Ecommerce ที่สามารถขายสินค้าผ่านเว็บไซต์ได้ ไม่ทราบว่าความต้องการของท่านลูกค้าเป็นแบบไหนคะ </t>
   </si>
   <si>
     <t>Nisara Mini </t>
@@ -91,13 +79,7 @@
     <t>Chalatip Sakonchaijaroen</t>
   </si>
   <si>
-    <t>เจ้าหน้าที่จะติดต่อกลับไปตามเบอร์โทรที่แจ้งมานะคะ ขอขอบพระคุณที่สนใจบริการของ ITOPPLUS ค่ะ </t>
-  </si>
-  <si>
     <t>Laksanakorn Sawasdikool</t>
-  </si>
-  <si>
-    <t>สำหรับ Google Marketing ทางเรามีผู้เชี่ยวชาญที่ผ่านการรับรองจาก Google ทุกคน และทางเจ้าหน้าที่ของเราจะดูแลและปรับรูปแบบโฆษณาให้เหมาะสมกับของธุรกิจลูกค้าค่ะ </t>
   </si>
   <si>
     <t>Pawee Vee Kongcheep </t>
@@ -122,9 +104,6 @@
   </si>
   <si>
     <t>Pattanasak Sukontasit</t>
-  </si>
-  <si>
-    <t>สวัสดีค่ะ ไอท้อปพลัส ยินดีให้บริการ ไม่ทราบว่าคุณ Pattanasak Top Sukontasit ต้องการสอบถามเกียวกับข้อมูลด้านใดคะ รบกวนแจ้งรายละเอียด หรือแจ้งชื่อ และเบอร์ติดต่อ เพื่อที่ทางเจ้าหน้าที่จะได้ติดต่อกลับไปเพื่อให้ข้อมูลเพิ่มเติม ขอบคุณค่ะ </t>
   </si>
   <si>
     <t>Wi Wisanbannawit Tzanis </t>
@@ -178,9 +157,6 @@
     <t>โอ้โห ทางผู้ใหญ่ท่านใด มีใจทำให้ลูกค้าขนาดนี้ ทางเราได้ศึกษา การเขียนและแก้ไขเวปไซต์ตามที่ทางไอทอปพลัสสอนมา จากความรู้เดิม ที่เรามีเพียงน้อยนิด เราได้ทำตาม ทางท่านผู้สอนอธิบาย ตอนนี้ความรู้ ของเรา ความเข้าใจของเรา มีถึง มากมาย ดีใจมากๆ เพราะเราสามารถเอาความรู้ของท่านผู้สอน สอนมา มาปรับปรุงเพิ่มเติม เพื่อหารายได้จากลูกค้าของเราได้มากขึ้นแน่นอน ฝากขอขอบพระคุณทางท่านผู้ใหญ่ ของทาง Itopplus ที่มีความใส่ใจทำให้ลูกค้าอย่างดี ทางเรา ต้องติดต่อกับบุคคลมากมาย ทางเราจะแนะนำท่านอื่นๆ ไปเป็นลูกค้า กับทางท่านแน่นอน และอีกอย่าง ที่สำคัญที่สุด เวลามีปัญหา โทรไปสอบถาม พนักงาน ของท่าน ไม่ว่าจะเป็น คุณหนิง คุณมาย ได้อธิบาย หลายๆเรื่อง ที่เรามีปัญหา และสอบถาม ได้อย่างกระจ่างชัดเจน และน้ำเสียงสุภาพอย่างมาก (ทางท่านผู้ใหญ่ทางนั้นคงดูแลมาอย่างดี ) ขอขอบพระคุณอีกครั้งครับผม</t>
   </si>
   <si>
-    <t>าลัย วัน วาน </t>
-  </si>
-  <si>
     <t>Kingpaii Chanya </t>
   </si>
   <si>
@@ -190,25 +166,49 @@
     <t>ธวัช สีปะโค</t>
   </si>
   <si>
-    <t>สวัสดีค่ะ ไอท้อปพลัส ยินดีให้บริการ ไม่ทราบว่าคุณ ธวัช สีปะโค ต้องการสอบถามเกียวกับข้อมูลด้านใดคะ รบกวนแจ้งรายละเอียด หรือแจ้งชื่อ และเบอร์ติดต่อ เพื่อที่ทางเจ้าหน้าที่จะได้ติดต่อกลับไปเพื่อให้ข้อมูลเพิ่มเติม ขอบคุณค่ะ </t>
-  </si>
-  <si>
     <t>Kritsana Pongsanthia</t>
   </si>
   <si>
-    <t>ทางเราให้บริการด้านจัดทำเว็บไซต์และให้บริการด้านการตลาดออนไลน์ค่ะ </t>
-  </si>
-  <si>
     <t>Jenny Pitcha</t>
-  </si>
-  <si>
-    <t>สามารถเเจ้งชื่อเเละเบอร์โทรเพื่อให้ทางเจ้าหน้าที่ตอบกลับได้นะคะ </t>
   </si>
   <si>
     <t>Oumaporn Boonsathienwong </t>
   </si>
   <si>
     <t>สนใจค่าาา </t>
+  </si>
+  <si>
+    <t>สวัสดีครับ ขอสอบถามหน่อยครับ อยากให้ ในเว็บ โชว ของต่ละวันทำได้ไหมครับ</t>
+  </si>
+  <si>
+    <t>เกี่ยวกับการตลาด การยิงโฆษณา ใน facebook ค่ะ</t>
+  </si>
+  <si>
+    <t>ขอทราบรายละเอียดหน่อยครับ</t>
+  </si>
+  <si>
+    <t>สนใจคะ</t>
+  </si>
+  <si>
+    <t>ค่าเรียนยังไงบ้างครับ</t>
+  </si>
+  <si>
+    <t>อาลัย วัน วาน </t>
+  </si>
+  <si>
+    <t>ไม่ครับไม่มีอะไรหรอกครับไม่ค่อยเล่นอะไรเล่นแค่เฟซทักแค่ Line แค่นั้นก็พอแล้วครับซิมรายเดือนยังไม่มีจ่ายเลยครับขอบคุณมาก</t>
+  </si>
+  <si>
+    <t>สอบถามครับ</t>
+  </si>
+  <si>
+    <t>สนใจค่ะ</t>
+  </si>
+  <si>
+    <t>สร้อย0817919165</t>
+  </si>
+  <si>
+    <t>สวัสดีครับ ชื่อ นัท ณัฐวุฒิ ปิ่นสุวรรณเบอร์ติดต่อ 082-883-8249ขอสอบถามเรื่องสมัครงานครับ ตอนนี้มีตำแหน่งงาน AE , Digital Maketing ว่างไหมครับ สนใจสมัครตำแหน่งนี้ครับ ขอบคุณครับ</t>
   </si>
 </sst>
 </file>
@@ -698,10 +698,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3412,169 +3415,361 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1085" name="AutoShape 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0CA4F35-BDED-A243-8987-88BBC8D9EA54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27406600"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1086" name="AutoShape 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F8768C0-E8E8-E94B-84DB-74E2AB993D3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27813000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1087" name="AutoShape 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21F249F4-22C0-444D-9B89-727FD8C68157}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="28219400"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1088" name="AutoShape 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50FEBE90-DC11-4849-8D81-7BFF2CC82F9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="29057600"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1085" name="AutoShape 61">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0CA4F35-BDED-A243-8987-88BBC8D9EA54}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="27406600"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1089" name="AutoShape 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B358B31F-045E-5D40-8661-3820624BE8CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="29464000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1086" name="AutoShape 62">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F8768C0-E8E8-E94B-84DB-74E2AB993D3B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="27813000"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1090" name="AutoShape 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5306B58-0448-E244-9EF1-E7DF9E8F68FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="29870400"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1087" name="AutoShape 63">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21F249F4-22C0-444D-9B89-727FD8C68157}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="28219400"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1091" name="AutoShape 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8A63CD8-4655-5B4A-9D0B-C2E7CF97E5E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="30276800"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1088" name="AutoShape 64">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50FEBE90-DC11-4849-8D81-7BFF2CC82F9D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="29057600"/>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1092" name="AutoShape 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{732B3090-A11A-584E-8BE2-1C08DB823FE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="30683200"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3609,20 +3804,20 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1089" name="AutoShape 65">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B358B31F-045E-5D40-8661-3820624BE8CD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="29464000"/>
+        <xdr:cNvPr id="1093" name="AutoShape 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C0D6A67-1506-E54B-8FF5-DD305C45F713}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="31089600"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3657,20 +3852,20 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1090" name="AutoShape 66">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5306B58-0448-E244-9EF1-E7DF9E8F68FB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="29870400"/>
+        <xdr:cNvPr id="1094" name="AutoShape 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C7B4849-720D-204D-AB99-3E3A1B917479}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="31496000"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3705,20 +3900,20 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1091" name="AutoShape 67">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8A63CD8-4655-5B4A-9D0B-C2E7CF97E5E5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="30276800"/>
+        <xdr:cNvPr id="1095" name="AutoShape 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C477D3D-330B-D748-ABA7-BB9F27641617}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="31902400"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3753,20 +3948,20 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1092" name="AutoShape 68">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{732B3090-A11A-584E-8BE2-1C08DB823FE0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="30683200"/>
+        <xdr:cNvPr id="1096" name="AutoShape 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB04DD4F-3820-664B-B0EC-568BB834585C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="32308800"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3801,212 +3996,212 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1093" name="AutoShape 69">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C0D6A67-1506-E54B-8FF5-DD305C45F713}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="31089600"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+        <xdr:cNvPr id="1097" name="AutoShape 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7FD872A-F12D-3242-A620-AC5A14F0CA18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="33147000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1094" name="AutoShape 70">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C7B4849-720D-204D-AB99-3E3A1B917479}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="31496000"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1098" name="AutoShape 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48F9C7B4-111A-6241-ACCC-670B4F37A690}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="33553400"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1095" name="AutoShape 71">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C477D3D-330B-D748-ABA7-BB9F27641617}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="31902400"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1099" name="AutoShape 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E38852E-2F0F-6546-99EA-241E25D3DC9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="33959800"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1096" name="AutoShape 72">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB04DD4F-3820-664B-B0EC-568BB834585C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="32308800"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1100" name="AutoShape 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{061833BA-3C88-9943-8867-84C839FAAEEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="34366200"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1097" name="AutoShape 73">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7FD872A-F12D-3242-A620-AC5A14F0CA18}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="33147000"/>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1101" name="AutoShape 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{186D2490-FBEF-6E41-AB96-ACFCCE900281}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="34772600"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4041,20 +4236,20 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1098" name="AutoShape 74">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48F9C7B4-111A-6241-ACCC-670B4F37A690}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="33553400"/>
+        <xdr:cNvPr id="1102" name="AutoShape 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A55D4AA-9B52-AD45-8BD8-2CBC8D8CE4AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="35179000"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4089,20 +4284,20 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1099" name="AutoShape 75">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E38852E-2F0F-6546-99EA-241E25D3DC9B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="33959800"/>
+        <xdr:cNvPr id="1103" name="AutoShape 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A41DB184-11DF-F84F-A9F1-70B47821B233}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="35585400"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4137,20 +4332,20 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1100" name="AutoShape 76">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{061833BA-3C88-9943-8867-84C839FAAEEF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="34366200"/>
+        <xdr:cNvPr id="1104" name="AutoShape 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B772C070-E1F2-9A49-8672-97ECDA09DD18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="35991800"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4185,20 +4380,20 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1101" name="AutoShape 77">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{186D2490-FBEF-6E41-AB96-ACFCCE900281}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="34772600"/>
+        <xdr:cNvPr id="1105" name="AutoShape 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{830226EC-CA4A-C948-9B1E-3F64127E8A43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="36398200"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4233,20 +4428,20 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1102" name="AutoShape 78">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A55D4AA-9B52-AD45-8BD8-2CBC8D8CE4AB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="35179000"/>
+        <xdr:cNvPr id="1106" name="AutoShape 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B73BFF5-F3DD-D945-9B01-A64D0830E69D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="37236400"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4281,20 +4476,20 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1103" name="AutoShape 79">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A41DB184-11DF-F84F-A9F1-70B47821B233}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="35585400"/>
+        <xdr:cNvPr id="1107" name="AutoShape 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2395EB4C-FF55-594E-BB6B-61A6DFF66D17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="37642800"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4329,20 +4524,20 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1104" name="AutoShape 80">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B772C070-E1F2-9A49-8672-97ECDA09DD18}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="35991800"/>
+        <xdr:cNvPr id="1108" name="AutoShape 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A7E9367-1B48-CD4B-ACE4-BDCD0F6512B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="38049200"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4377,20 +4572,20 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1105" name="AutoShape 81">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{830226EC-CA4A-C948-9B1E-3F64127E8A43}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="36398200"/>
+        <xdr:cNvPr id="1109" name="AutoShape 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{223FCAAD-6F17-8847-8D76-9C23876EBC70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="38455600"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4425,20 +4620,20 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1106" name="AutoShape 82">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B73BFF5-F3DD-D945-9B01-A64D0830E69D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="37236400"/>
+        <xdr:cNvPr id="1110" name="AutoShape 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBABE438-3958-7847-89E1-843998E1CEB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="38862000"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4473,20 +4668,20 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1107" name="AutoShape 83">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2395EB4C-FF55-594E-BB6B-61A6DFF66D17}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="37642800"/>
+        <xdr:cNvPr id="1111" name="AutoShape 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5A80540-4355-9A44-8BB3-E99151730210}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="39268400"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4521,20 +4716,20 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1108" name="AutoShape 84">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A7E9367-1B48-CD4B-ACE4-BDCD0F6512B0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="38049200"/>
+        <xdr:cNvPr id="1112" name="AutoShape 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3389BA76-2CC0-C049-B959-5BB5A21551E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="39674800"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4569,20 +4764,20 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1109" name="AutoShape 85">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{223FCAAD-6F17-8847-8D76-9C23876EBC70}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="38455600"/>
+        <xdr:cNvPr id="1113" name="AutoShape 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B7C350B-F14C-4646-951F-5B8CB4461BE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="40081200"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4617,20 +4812,20 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1110" name="AutoShape 86">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBABE438-3958-7847-89E1-843998E1CEB5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="38862000"/>
+        <xdr:cNvPr id="1114" name="AutoShape 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6E4B2A8-70F0-B547-8C27-8CE7724304D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="40487600"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4665,20 +4860,20 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1111" name="AutoShape 87">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5A80540-4355-9A44-8BB3-E99151730210}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="39268400"/>
+        <xdr:cNvPr id="1115" name="AutoShape 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6195DBF-2E52-D14E-97FD-AC8FEA05E876}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="41325800"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4713,20 +4908,20 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1112" name="AutoShape 88">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3389BA76-2CC0-C049-B959-5BB5A21551E7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="39674800"/>
+        <xdr:cNvPr id="1116" name="AutoShape 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FD51E25-F206-3242-9AD6-91FB25841B8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="41732200"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4761,20 +4956,20 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1113" name="AutoShape 89">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B7C350B-F14C-4646-951F-5B8CB4461BE9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="40081200"/>
+        <xdr:cNvPr id="1117" name="AutoShape 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C810E58F-A767-7C48-82BA-27657061B038}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="42138600"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4809,20 +5004,20 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1114" name="AutoShape 90">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6E4B2A8-70F0-B547-8C27-8CE7724304D1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="40487600"/>
+        <xdr:cNvPr id="1118" name="AutoShape 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B19478FC-6AC1-EF4E-A43C-9D8864936CC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="42545000"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4857,20 +5052,20 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1115" name="AutoShape 91">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6195DBF-2E52-D14E-97FD-AC8FEA05E876}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="41325800"/>
+        <xdr:cNvPr id="1119" name="AutoShape 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D05A17F9-C8CE-3445-8AB9-5010DA127E66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="42951400"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4905,20 +5100,20 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1116" name="AutoShape 92">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FD51E25-F206-3242-9AD6-91FB25841B8E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="41732200"/>
+        <xdr:cNvPr id="1120" name="AutoShape 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90000DAE-3B1E-FD45-A3A3-7F334FEAC762}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="43357800"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4953,20 +5148,20 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1117" name="AutoShape 93">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C810E58F-A767-7C48-82BA-27657061B038}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="42138600"/>
+        <xdr:cNvPr id="1121" name="AutoShape 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E386A7E8-7EBF-7149-88BD-93490153DF98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="43764200"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5001,20 +5196,20 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1118" name="AutoShape 94">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B19478FC-6AC1-EF4E-A43C-9D8864936CC8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="42545000"/>
+        <xdr:cNvPr id="1122" name="AutoShape 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE5D5069-7CFC-D140-A238-9E09276EED5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="44170600"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5049,20 +5244,20 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1119" name="AutoShape 95">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D05A17F9-C8CE-3445-8AB9-5010DA127E66}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="42951400"/>
+        <xdr:cNvPr id="1123" name="AutoShape 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CA11DF6-45A8-B740-8E06-A04B97963185}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="44577000"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5097,20 +5292,20 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1120" name="AutoShape 96">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90000DAE-3B1E-FD45-A3A3-7F334FEAC762}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="43357800"/>
+        <xdr:cNvPr id="1124" name="AutoShape 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FFCB447-6753-ED4D-97CC-9F6CDC780C6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="45415200"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5145,20 +5340,20 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1121" name="AutoShape 97">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E386A7E8-7EBF-7149-88BD-93490153DF98}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="43764200"/>
+        <xdr:cNvPr id="1125" name="AutoShape 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB6E4F2C-336D-D943-B777-9F5A3E27B6B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="45821600"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5193,20 +5388,20 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1122" name="AutoShape 98">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE5D5069-7CFC-D140-A238-9E09276EED5C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="44170600"/>
+        <xdr:cNvPr id="1126" name="AutoShape 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{180BB65D-0F01-1044-A7A5-5F2626E45209}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="46228000"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5241,20 +5436,20 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1123" name="AutoShape 99">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CA11DF6-45A8-B740-8E06-A04B97963185}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="44577000"/>
+        <xdr:cNvPr id="1127" name="AutoShape 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32967B04-E42F-1043-A1AA-5270E66884B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="46634400"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5289,236 +5484,44 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1124" name="AutoShape 100">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FFCB447-6753-ED4D-97CC-9F6CDC780C6D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="45415200"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+        <xdr:cNvPr id="1128" name="AutoShape 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F073006-466B-444E-8DA0-AC0ED6FEC3EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="47040800"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1125" name="AutoShape 101">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB6E4F2C-336D-D943-B777-9F5A3E27B6B0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="45821600"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1126" name="AutoShape 102">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{180BB65D-0F01-1044-A7A5-5F2626E45209}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="46228000"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1127" name="AutoShape 103">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32967B04-E42F-1043-A1AA-5270E66884B7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="46634400"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1128" name="AutoShape 104">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F073006-466B-444E-8DA0-AC0ED6FEC3EA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="47040800"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
@@ -5669,7 +5672,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5717,7 +5720,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -19352,8 +19355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19398,212 +19401,212 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
+      <c r="B7" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>23</v>
+      <c r="B12" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>60</v>
@@ -19611,10 +19614,10 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
